--- a/documents/Budget.xlsx
+++ b/documents/Budget.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Documents\GitHub\steve-spiteri.github.io\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Price Per Item</t>
   </si>
   <si>
-    <t>Mini PIR Motion Sensor</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/ca/en/mini-pir-motion-sensor.html</t>
-  </si>
-  <si>
     <t>Octopus Barometric Pressure Sensor Brick</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>http://www.robotshop.com/ca/en/electronic-brick-humidity-temperature-sensor.html</t>
   </si>
   <si>
-    <t>Mini Photocell Light Sensor</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/ca/en/mini-photocell-light-sensor.html</t>
-  </si>
-  <si>
     <t>Sensors</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>Parts</t>
   </si>
   <si>
-    <t>Resistor/Capacitors</t>
-  </si>
-  <si>
     <t>Multimeter</t>
   </si>
   <si>
@@ -101,12 +86,6 @@
     <t>http://www.robotshop.com/ca/en/elenco-22-gauge-black-25-ft.html</t>
   </si>
   <si>
-    <t>5m Black Heat Shrink Tubing</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/ca/en/5m-black-heat-shrink-tubing.html</t>
-  </si>
-  <si>
     <t>M3 x 6mm Clear Nylon Screws and Nuts (10)</t>
   </si>
   <si>
@@ -119,21 +98,12 @@
     <t>http://www.robotshop.com/ca/en/m3-x-30mm-nylon-standoffs-kit-10.html</t>
   </si>
   <si>
-    <t>Humber Parts Kit</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>Humber Lab</t>
   </si>
   <si>
-    <t>SR-1 Standard 25W Pencil Soldering Iron</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/ca/en/elenco-sr-1-standard-25w-pencil-soldering-iron.html</t>
-  </si>
-  <si>
     <t>Lead Free Solder (100g)</t>
   </si>
   <si>
@@ -143,10 +113,40 @@
     <t>Wire Stripper</t>
   </si>
   <si>
-    <t>http://www.robotshop.com/ca/en/elenco-st-3-wire-stripper.html</t>
-  </si>
-  <si>
-    <t>Breadboard</t>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Humber College - Prototype Lab</t>
+  </si>
+  <si>
+    <t>Modular Sensor Hat</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>Supplmental PCB</t>
+  </si>
+  <si>
+    <t>5 Position Header</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-search/en?keywords=s6103-nd</t>
+  </si>
+  <si>
+    <t>40 Position Receptacle Connector</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/harwin-inc/M50-3002045/952-1369-5-ND/2264350</t>
+  </si>
+  <si>
+    <t>Acrylic Case</t>
+  </si>
+  <si>
+    <t>Humber Parts Crib</t>
+  </si>
+  <si>
+    <t>Soldering Iron</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -228,6 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,17 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -612,7 +613,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -633,440 +634,474 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>7.56</v>
+        <v>8.33</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E19" si="0">C4*D4</f>
-        <v>7.56</v>
+        <f t="shared" ref="E4:E21" si="0">C4*D4</f>
+        <v>8.33</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F19" si="1">E4*0.13</f>
-        <v>0.98280000000000001</v>
+        <f t="shared" ref="F4:F21" si="1">E4*0.13</f>
+        <v>1.0829</v>
       </c>
       <c r="G4" s="3">
         <v>6.27</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H19" si="2">E4+F4+G4</f>
-        <v>14.812799999999999</v>
+        <f t="shared" ref="H4:H21" si="2">E4+F4+G4</f>
+        <v>15.6829</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>8.33</v>
+        <v>4.04</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>8.33</v>
+        <v>4.04</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="1"/>
-        <v>1.0829</v>
+        <v>0.5252</v>
       </c>
       <c r="G5" s="3">
         <v>6.27</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>15.6829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.04</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.04</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5252</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6.27</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
         <v>10.8352</v>
       </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>1.92</v>
+        <v>2.88</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>1.92</v>
+        <v>2.88</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="1"/>
-        <v>0.24959999999999999</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="G7" s="3">
         <v>6.27</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>8.4395999999999987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+        <v>9.5244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.26</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.27</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>11.0838</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>2.88</v>
+      <c r="D9" s="1">
+        <v>2.82</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>0.37440000000000001</v>
+        <v>0.36659999999999998</v>
       </c>
       <c r="G9" s="3">
         <v>6.27</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
-        <v>9.5244</v>
+        <v>9.4565999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>6.65</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>6.65</v>
+        <v>0.1</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.86450000000000005</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>6.27</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>13.7845</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>4.26</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55379999999999996</v>
-      </c>
-      <c r="G11" s="3">
-        <v>6.27</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
-        <v>11.0838</v>
-      </c>
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>2.82</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.36659999999999998</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>6.27</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>9.4565999999999999</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
+      <c r="A14" t="s">
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.51</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>5.51</v>
+      </c>
+      <c r="F14" s="3">
+        <f>E14*0.13</f>
+        <v>0.71630000000000005</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>14.2263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="F15" s="3">
+        <f>E15*0.13</f>
+        <v>0.23140000000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>10.0114</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>3.76</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>3.76</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48880000000000001</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6.27</v>
-      </c>
-      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>10.518799999999999</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6.27</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>13.954000000000001</v>
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D21" s="1">
         <v>10.19</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>10.19</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F21" s="3">
         <f t="shared" si="1"/>
         <v>1.3247</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G21" s="3">
         <v>6.27</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H21" s="3">
         <f t="shared" si="2"/>
         <v>17.784700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
-        <f>SUM(C2:C19)+3</f>
-        <v>16</v>
-      </c>
-      <c r="D20" s="10">
-        <f t="shared" ref="D20:H20" si="3">SUM(D2:D19)</f>
-        <v>157.03</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="3"/>
-        <v>159.16</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="3"/>
-        <v>20.690799999999999</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" si="3"/>
-        <v>81.919999999999973</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="3"/>
-        <v>261.77080000000001</v>
+      <c r="C22" s="7">
+        <f>SUM(C2:C21)</f>
+        <v>15</v>
+      </c>
+      <c r="D22" s="10">
+        <f>SUM(D2:D21)</f>
+        <v>186.83999999999997</v>
+      </c>
+      <c r="E22" s="10">
+        <f>SUM(E2:E21)</f>
+        <v>189.85999999999999</v>
+      </c>
+      <c r="F22" s="10">
+        <f>SUM(F2:F21)</f>
+        <v>18.168800000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>66.569999999999993</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" ref="D22:H22" si="3">SUM(H2:H21)</f>
+        <v>274.59880000000004</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Budget.xlsx
+++ b/documents/Budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Soldering Iron</t>
+  </si>
+  <si>
+    <t>Solar Cell</t>
+  </si>
+  <si>
+    <t>http://sayal.com/STORE/View_SPEC.asp?SKU=237344</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -228,7 +234,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,18 +642,18 @@
         <v>8.33</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E21" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E22" si="0">C4*D4</f>
         <v>8.33</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F21" si="1">E4*0.13</f>
+        <f t="shared" ref="F4:F22" si="1">E4*0.13</f>
         <v>1.0829</v>
       </c>
       <c r="G4" s="3">
         <v>6.27</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H21" si="2">E4+F4+G4</f>
+        <f t="shared" ref="H4:H22" si="2">E4+F4+G4</f>
         <v>15.6829</v>
       </c>
     </row>
@@ -681,348 +686,351 @@
         <v>10.8352</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.95</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77350000000000008</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>6.7235000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>2.88</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>0.37440000000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>6.27</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>9.5244</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>2.13</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>4.26</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>0.55379999999999996</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>6.27</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>11.0838</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>2.82</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>2.82</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>0.36659999999999998</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>6.27</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>9.4565999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>35</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>5.51</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>5.51</v>
       </c>
-      <c r="F14" s="3">
-        <f>E14*0.13</f>
+      <c r="F15" s="3">
+        <f>E15*0.13</f>
         <v>0.71630000000000005</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>14.2263</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>0.89</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>1.78</v>
       </c>
-      <c r="F15" s="3">
-        <f>E15*0.13</f>
+      <c r="F16" s="3">
+        <f>E16*0.13</f>
         <v>0.23140000000000002</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>10.0114</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1048,60 +1056,86 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>10.19</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>10.19</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>1.3247</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>6.27</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>17.784700000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="7">
-        <f>SUM(C2:C21)</f>
-        <v>15</v>
-      </c>
-      <c r="D22" s="10">
-        <f>SUM(D2:D21)</f>
-        <v>186.83999999999997</v>
-      </c>
-      <c r="E22" s="10">
-        <f>SUM(E2:E21)</f>
-        <v>189.85999999999999</v>
-      </c>
-      <c r="F22" s="10">
-        <f>SUM(F2:F21)</f>
-        <v>18.168800000000001</v>
-      </c>
-      <c r="G22" s="10">
-        <f>SUM(G2:G21)</f>
+      <c r="C23" s="7">
+        <f>SUM(C2:C22)</f>
+        <v>16</v>
+      </c>
+      <c r="D23" s="10">
+        <f>SUM(D2:D22)</f>
+        <v>192.78999999999996</v>
+      </c>
+      <c r="E23" s="10">
+        <f>SUM(E2:E22)</f>
+        <v>195.81</v>
+      </c>
+      <c r="F23" s="10">
+        <f>SUM(F2:F22)</f>
+        <v>18.942299999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <f>SUM(G2:G22)</f>
         <v>66.569999999999993</v>
       </c>
-      <c r="H22" s="10">
-        <f t="shared" ref="D22:H22" si="3">SUM(H2:H21)</f>
-        <v>274.59880000000004</v>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23" si="3">SUM(H2:H22)</f>
+        <v>281.32230000000004</v>
       </c>
     </row>
   </sheetData>
